--- a/data-raw/data-tidy/tech-yearbook/part08-output/03-teckmarket-pull/funds-2018.xlsx
+++ b/data-raw/data-tidy/tech-yearbook/part08-output/03-teckmarket-pull/funds-2018.xlsx
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>353.986914</v>
+        <v>3539869.14</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>2247.151721</v>
+        <v>22471517.21</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>302.998846</v>
+        <v>3029988.46</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>183.425536</v>
+        <v>1834255.36</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>1847.113723</v>
+        <v>18471137.23</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>192.207902</v>
+        <v>1922079.02</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>513.33019</v>
+        <v>5133301.9</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>79.213613</v>
+        <v>792136.13</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>495.625344</v>
+        <v>4956253.44</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>372.52048</v>
+        <v>3725204.8</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>160.683381</v>
+        <v>1606833.81</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>828.467414</v>
+        <v>8284674.14</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>194.654809</v>
+        <v>1946548.09</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>431.920515</v>
+        <v>4319205.15</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>1438.642989</v>
+        <v>14386429.89</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>242.762567</v>
+        <v>2427625.67</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>273.216755</v>
+        <v>2732167.55</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>226.874112</v>
+        <v>2268741.12</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>96.419942</v>
+        <v>964199.42</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>76.28523</v>
+        <v>762852.3</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>17697.4212963105</v>
+        <v>176974212.963105</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>938.697843</v>
+        <v>9386978.43</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>251.050038</v>
+        <v>2510500.38</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>591.369126</v>
+        <v>5913691.26</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>828.168366</v>
+        <v>8281683.66</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>588.613505</v>
+        <v>5886135.05</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>347.59421</v>
+        <v>3475942.1</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>72.499775</v>
+        <v>724997.75</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>150.226394</v>
+        <v>1502263.94</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>327.849823</v>
+        <v>3278498.23</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1100,7 +1100,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>717.67354</v>
+        <v>7176735.4</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1120,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>517.920626</v>
+        <v>5179206.26</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
